--- a/data/long_bre/P24_1-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_1-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-27,97%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 8,92</t>
+          <t>-14,82; 7,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 7,17</t>
+          <t>-30,25; 3,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 7,41</t>
+          <t>-15,45; 7,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,96; 48,39</t>
+          <t>-10,99; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,64; 37,61</t>
+          <t>-51,46; 49,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 30,18</t>
+          <t>-64,43; 15,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-38,77; 27,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,63; 90,61</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,22</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 26,21</t>
+          <t>-1,45; 29,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 11,92</t>
+          <t>-14,11; 14,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 8,75</t>
+          <t>-14,68; 6,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 78,53</t>
+          <t>-12,08; 18,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 29,52</t>
+          <t>-2,54; 95,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 19,08</t>
+          <t>-27,57; 44,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-25,41; 15,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-24,1; 66,27</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-36,99%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>-32,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>38,45%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43,15%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -0,79</t>
+          <t>-31,01; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 15,76</t>
+          <t>-1,92; 22,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 14,3</t>
+          <t>-0,0; 14,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,83; -2,62</t>
+          <t>-27,68; 12,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 87,86</t>
+          <t>-62,66; 9,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 107,0</t>
+          <t>-6,56; 121,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 115,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-48,41; 42,02</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 61,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 16,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 17,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-7,89%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 5,24</t>
+          <t>3,27; 18,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 7,92</t>
+          <t>-12,54; 5,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 4,4</t>
+          <t>-7,48; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 11,77</t>
+          <t>-8,22; 7,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 19,52</t>
+          <t>13,64; 114,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 10,39</t>
+          <t>-31,86; 20,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,59; 20,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-24,1; 30,24</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 1,93</t>
+          <t>-11,59; 7,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 8,58</t>
+          <t>-8,69; 9,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 10,35</t>
+          <t>-9,84; 4,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 9,12</t>
+          <t>-11,15; 7,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 44,3</t>
+          <t>-21,64; 17,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 46,18</t>
+          <t>-17,46; 24,45</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-19,04; 10,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 18,94</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>-27,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 12,14</t>
+          <t>-19,04; -1,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 11,58</t>
+          <t>-4,59; 9,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,97</t>
+          <t>-2,45; 10,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 60,61</t>
+          <t>-7,96; 9,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 49,3</t>
+          <t>-49,95; -2,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 43,04</t>
+          <t>-17,63; 46,58</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 43,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-24,31; 39,66</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 7,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,29; -5,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 5,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 7,75</t>
+          <t>-9,31; 9,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 12,99</t>
+          <t>-5,91; 10,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,06</t>
+          <t>-2,45; 10,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 34,96</t>
+          <t>-6,25; 8,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 64,34</t>
+          <t>-28,29; 45,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 39,12</t>
+          <t>-18,03; 45,86</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 46,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-21,05; 39,11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-20,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-10,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-12,51%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,39</t>
+          <t>-9,15; 12,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 4,32</t>
+          <t>-18,59; -0,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,04</t>
+          <t>-12,62; 1,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 38,82</t>
+          <t>-15,07; 3,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 16,9</t>
+          <t>-17,34; 29,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 16,17</t>
+          <t>-35,33; -0,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; 3,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,62; 9,61</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,6</t>
+          <t>-11,61; 6,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 1,88</t>
+          <t>-0,74; 14,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,81</t>
+          <t>-5,29; 7,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 12,68</t>
+          <t>-5,13; 12,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 4,14</t>
+          <t>-34,53; 28,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 1,78</t>
+          <t>-2,81; 75,04</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 35,85</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 52,02</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 40,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 35,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 8,63</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 12,48</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-19,81; 37,88</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-23,62; 55,76</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,89%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-1,74%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-11,98; 4,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 10,19</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 9,51</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-22,66; 24,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-8,43%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 9,02</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 7,31</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-18,14; 49,72</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; 44,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-1,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 7,67</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 4,03</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 4,37</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 4,76</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 34,4</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 14,89</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 17,11</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-18,86; 20,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-6,7%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-7,84%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 4,49</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 2,24</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 1,18</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 4,13</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 9,81</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-16,66; 5,77</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-15,58; 2,71</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-10,99%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 1,17</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 8,37</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 7,29</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 7,73</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 4,88</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 39,91</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 33,1</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 28,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
